--- a/MRO_QA_Automation/src/test/resources/data/write_test.xlsx
+++ b/MRO_QA_Automation/src/test/resources/data/write_test.xlsx
@@ -23,7 +23,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>01/12/2022</t>
   </si>
 </sst>
 </file>
